--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="173">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1797,7 +1797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="O5">
         <f>COUNTIF(E4:E45, "mapping done")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <f>COUNTIF(E4:E45, "mapping in progress")</f>
@@ -1956,11 +1956,11 @@
       </c>
       <c r="R5">
         <f>ROWS(E4:E45)-O5-P5-Q5</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,9 @@
       <c r="E17" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2324,7 +2326,9 @@
       <c r="D29" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2352,7 +2356,9 @@
       <c r="D31" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1797,7 +1797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,17 +1922,17 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="27"/>
       <c r="I5">
         <f>COUNTIF(D4:D45, "RPA done")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <f>COUNTIF(D4:D45,"RPA in progress")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D45,"*RPA blocked*")</f>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="27"/>

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Truckers " sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1796,8 +1796,8 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,9 @@
       <c r="E22" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -2297,7 +2299,9 @@
       <c r="E27" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Truckers " sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -523,9 +523,6 @@
     <t>blocked</t>
   </si>
   <si>
-    <t>RPA in progress</t>
-  </si>
-  <si>
     <t>RPA Status</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>Script</t>
+  </si>
+  <si>
+    <t>RPA blocked by no site or site</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1796,8 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1807,7 @@
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1845,13 +1845,13 @@
         <v>51</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="27"/>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
         <v>155</v>
@@ -1880,10 +1880,10 @@
         <v>159</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O4" t="s">
         <v>155</v>
@@ -1895,10 +1895,10 @@
         <v>159</v>
       </c>
       <c r="R4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" t="s">
         <v>165</v>
-      </c>
-      <c r="T4" t="s">
-        <v>166</v>
       </c>
       <c r="U4" t="s">
         <v>155</v>
@@ -1910,7 +1910,7 @@
         <v>159</v>
       </c>
       <c r="X4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1932,11 +1932,11 @@
       </c>
       <c r="J5">
         <f>COUNTIF(D4:D45,"RPA in progress")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D45,"*RPA blocked*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5">
         <f>ROWS(D4:D45)-K5-J5-I5</f>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1987,10 +1987,10 @@
         <v>156</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2019,10 +2019,10 @@
         <v>156</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="27"/>
@@ -2135,10 +2135,10 @@
         <v>156</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,10 +2153,10 @@
         <v>156</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="27" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="27"/>
@@ -2227,10 +2227,10 @@
         <v>156</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="27"/>
@@ -2297,10 +2297,10 @@
         <v>156</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,9 +2315,11 @@
         <v>156</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="27"/>
+        <v>168</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -2331,9 +2333,11 @@
         <v>156</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="27"/>
+        <v>168</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -2344,7 +2348,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="27"/>
@@ -2361,9 +2365,11 @@
         <v>156</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="27"/>
+        <v>168</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -2440,7 +2446,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="27"/>
@@ -2468,7 +2474,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="27"/>
@@ -2482,7 +2488,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="27"/>
@@ -2527,7 +2533,7 @@
         <v>157</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" s="27"/>
     </row>
@@ -2571,7 +2577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,13 +2619,13 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
         <v>170</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>171</v>
-      </c>
-      <c r="G3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2631,7 +2637,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
         <v>155</v>
@@ -2643,10 +2649,10 @@
         <v>159</v>
       </c>
       <c r="M4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P4" t="s">
         <v>155</v>
@@ -2658,10 +2664,10 @@
         <v>159</v>
       </c>
       <c r="S4" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" t="s">
         <v>165</v>
-      </c>
-      <c r="U4" t="s">
-        <v>166</v>
       </c>
       <c r="V4" t="s">
         <v>155</v>
@@ -2673,7 +2679,7 @@
         <v>159</v>
       </c>
       <c r="Y4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="174">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>RPA blocked by no site or site</t>
+  </si>
+  <si>
+    <t>RPA blocked by no data or site issue</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1799,8 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1931,7 @@
       <c r="F5" s="27"/>
       <c r="I5">
         <f>COUNTIF(D4:D45, "RPA done")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <f>COUNTIF(D4:D45,"RPA in progress")</f>
@@ -1936,11 +1939,11 @@
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D45,"*RPA blocked*")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <f>ROWS(D4:D45)-K5-J5-I5</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <f>COUNTIF(E4:E45, "mapping done")</f>
@@ -2241,7 +2244,9 @@
         <v>73</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="27"/>
+      <c r="D23" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
@@ -2281,7 +2286,9 @@
         <v>76</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="27" t="s">
+        <v>161</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="27"/>
     </row>
@@ -2393,7 +2400,9 @@
         <v>83</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="27" t="s">
+        <v>156</v>
+      </c>
       <c r="E33" s="28"/>
       <c r="F33" s="27"/>
     </row>
@@ -2405,7 +2414,9 @@
         <v>84</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="27" t="s">
+        <v>157</v>
+      </c>
       <c r="E34" s="28"/>
       <c r="F34" s="27"/>
     </row>

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -559,10 +559,7 @@
     <t>Script</t>
   </si>
   <si>
-    <t>RPA blocked by no site or site</t>
-  </si>
-  <si>
-    <t>RPA blocked by no data or site issue</t>
+    <t>RPA blocked by no site</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1796,8 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="A1:XFD1048576"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1928,7 @@
       <c r="F5" s="27"/>
       <c r="I5">
         <f>COUNTIF(D4:D45, "RPA done")</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <f>COUNTIF(D4:D45,"RPA in progress")</f>
@@ -1943,11 +1940,11 @@
       </c>
       <c r="L5">
         <f>ROWS(D4:D45)-K5-J5-I5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f>COUNTIF(E4:E45, "mapping done")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P5">
         <f>COUNTIF(E4:E45, "mapping in progress")</f>
@@ -1959,7 +1956,7 @@
       </c>
       <c r="R5">
         <f>ROWS(E4:E45)-O5-P5-Q5</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
@@ -2173,7 +2170,9 @@
       <c r="D18" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,7 +2244,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="27" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
@@ -2386,9 +2385,7 @@
         <v>82</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="27" t="s">
-        <v>156</v>
-      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="28"/>
       <c r="F32" s="27"/>
     </row>
@@ -2401,7 +2398,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="27" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="27"/>
@@ -2431,7 +2428,9 @@
       <c r="D35" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,7 +2444,9 @@
       <c r="D36" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,7 +2474,9 @@
       <c r="D38" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="28"/>
+      <c r="E38" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,7 +2544,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>168</v>
@@ -2559,7 +2562,9 @@
       <c r="D44" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1797,7 +1797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1928,7 @@
       <c r="F5" s="27"/>
       <c r="I5">
         <f>COUNTIF(D4:D45, "RPA done")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <f>COUNTIF(D4:D45,"RPA in progress")</f>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="L5">
         <f>ROWS(D4:D45)-K5-J5-I5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <f>COUNTIF(E4:E45, "mapping done")</f>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,9 @@
       <c r="E18" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2385,7 +2387,9 @@
         <v>82</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="27"/>
+      <c r="D32" s="27" t="s">
+        <v>156</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="27"/>
     </row>
@@ -2431,7 +2435,9 @@
       <c r="E35" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="27"/>
+      <c r="F35" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -2447,7 +2453,9 @@
       <c r="E36" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="27"/>
+      <c r="F36" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -2477,7 +2485,9 @@
       <c r="E38" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -2549,7 +2559,9 @@
       <c r="E43" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="27"/>
+      <c r="F43" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="173">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1796,8 +1796,8 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,9 @@
       <c r="E44" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F44" s="27"/>
+      <c r="F44" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="173">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1796,8 +1796,8 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="O5">
         <f>COUNTIF(E4:E45, "mapping done")</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P5">
         <f>COUNTIF(E4:E45, "mapping in progress")</f>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="R5">
         <f>ROWS(E4:E45)-O5-P5-Q5</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
@@ -2050,7 +2050,9 @@
       <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2064,7 +2066,9 @@
       <c r="D11" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2078,7 +2082,9 @@
       <c r="D12" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -2106,7 +2112,9 @@
       <c r="D14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2120,7 +2128,9 @@
       <c r="D15" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2528,7 +2538,9 @@
       <c r="D41" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2542,7 +2554,9 @@
       <c r="D42" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="174">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>RPA blocked by no site</t>
+  </si>
+  <si>
+    <t>script in progress</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <f>COUNTIF(F4:F45, "*script blocked*")</f>
@@ -1972,7 +1975,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2541,7 +2544,9 @@
       <c r="E41" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F41" s="27"/>
+      <c r="F41" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -2557,7 +2562,9 @@
       <c r="E42" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="27"/>
+      <c r="F42" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1800,7 +1800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W5">
         <f>COUNTIF(F4:F45, "*script blocked*")</f>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,9 @@
       <c r="E14" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2134,7 +2136,9 @@
       <c r="E15" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1800,7 +1800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,11 +1963,11 @@
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <f>COUNTIF(F4:F45, "*script blocked*")</f>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,9 @@
       <c r="E10" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2072,7 +2074,9 @@
       <c r="E11" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\AirCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="174">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -1800,7 +1800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,11 +1963,11 @@
       </c>
       <c r="U5">
         <f>COUNTIF(F4:F45, "script done")</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V5">
         <f>COUNTIF(F4:F45, "script in progress")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f>COUNTIF(F4:F45, "*script blocked*")</f>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="X5">
         <f>ROWS(F4:F45)-U5-V5-W5</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,9 @@
       <c r="E12" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2123,7 +2125,7 @@
         <v>168</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2141,7 +2143,7 @@
         <v>168</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2553,7 +2555,7 @@
         <v>168</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,7 +2573,7 @@
         <v>168</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
